--- a/Data/IndividualCounties/4019.xlsx
+++ b/Data/IndividualCounties/4019.xlsx
@@ -14,16 +14,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t xml:space="preserve">meanNewCases.meanNewCases</t>
+    <t xml:space="preserve">month</t>
   </si>
   <si>
-    <t xml:space="preserve">meanNewCases.temp</t>
+    <t xml:space="preserve">year</t>
   </si>
   <si>
-    <t xml:space="preserve">meanNewCases.soil</t>
+    <t xml:space="preserve">meanNewCases</t>
   </si>
   <si>
-    <t xml:space="preserve">meanNewCases.precip</t>
+    <t xml:space="preserve">totalNewCases</t>
   </si>
   <si>
     <t xml:space="preserve">temp</t>
@@ -389,16 +389,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.215698242188</v>
+        <v>2020</v>
       </c>
       <c r="B2" t="n">
-        <v>266.551116943</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.215698242188</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00195766742661</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>266.551116943</v>
@@ -412,16 +412,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.338317871094</v>
+        <v>2020</v>
       </c>
       <c r="B3" t="n">
-        <v>272.083618163999</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.338317871094</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00117530858711</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>272.083618163999</v>
@@ -435,16 +435,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.394149780273</v>
+        <v>2020</v>
       </c>
       <c r="B4" t="n">
-        <v>276.732635497999</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.394149780273</v>
+        <v>6.51612903225806</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00332340985045</v>
+        <v>202</v>
       </c>
       <c r="E4" t="n">
         <v>276.732635497999</v>
@@ -458,16 +458,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.294692993164</v>
+        <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>283.822433472</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.294692993164</v>
+        <v>34.6333333333333</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00117324436695</v>
+        <v>1039</v>
       </c>
       <c r="E5" t="n">
         <v>283.822433472</v>
@@ -481,16 +481,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.0818023681641</v>
+        <v>2020</v>
       </c>
       <c r="B6" t="n">
-        <v>291.205459594999</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0818023681641</v>
+        <v>36.3548387096774</v>
       </c>
       <c r="D6" t="n">
-        <v>0.000492973021039</v>
+        <v>1127</v>
       </c>
       <c r="E6" t="n">
         <v>291.205459594999</v>
@@ -504,16 +504,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.0265655517578</v>
+        <v>2020</v>
       </c>
       <c r="B7" t="n">
-        <v>298.316925049</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0265655517578</v>
+        <v>187.866666666667</v>
       </c>
       <c r="D7" t="n">
-        <v>0.000064993252238</v>
+        <v>5636</v>
       </c>
       <c r="E7" t="n">
         <v>298.316925049</v>
@@ -527,16 +527,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.0281677246094</v>
+        <v>2020</v>
       </c>
       <c r="B8" t="n">
-        <v>298.688827515</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0281677246094</v>
+        <v>263.322580645161</v>
       </c>
       <c r="D8" t="n">
-        <v>0.000171396424605</v>
+        <v>8163</v>
       </c>
       <c r="E8" t="n">
         <v>298.688827515</v>
@@ -550,16 +550,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.045166015625</v>
+        <v>2020</v>
       </c>
       <c r="B9" t="n">
-        <v>298.18522644</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0.045166015625</v>
+        <v>163.032258064516</v>
       </c>
       <c r="D9" t="n">
-        <v>0.00071668523924</v>
+        <v>5054</v>
       </c>
       <c r="E9" t="n">
         <v>298.18522644</v>
@@ -573,16 +573,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.0242462158203</v>
+        <v>2020</v>
       </c>
       <c r="B10" t="n">
-        <v>293.498794556</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0242462158203</v>
+        <v>146.9</v>
       </c>
       <c r="D10" t="n">
-        <v>0.000000525067151</v>
+        <v>4407</v>
       </c>
       <c r="E10" t="n">
         <v>293.498794556</v>
@@ -596,16 +596,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.0249786376953</v>
+        <v>2020</v>
       </c>
       <c r="B11" t="n">
-        <v>286.173187256</v>
+        <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0249786376953</v>
+        <v>95.8064516129032</v>
       </c>
       <c r="D11" t="n">
-        <v>0.000000397674739</v>
+        <v>2970</v>
       </c>
       <c r="E11" t="n">
         <v>286.173187256</v>
@@ -619,16 +619,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.142776489258</v>
+        <v>2020</v>
       </c>
       <c r="B12" t="n">
-        <v>278.69859314</v>
+        <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>0.142776489258</v>
+        <v>375.366666666667</v>
       </c>
       <c r="D12" t="n">
-        <v>0.00105689202735</v>
+        <v>11261</v>
       </c>
       <c r="E12" t="n">
         <v>278.69859314</v>
@@ -642,16 +642,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.193359375</v>
+        <v>2020</v>
       </c>
       <c r="B13" t="n">
-        <v>273.104003906</v>
+        <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>0.193359375</v>
+        <v>956.870967741935</v>
       </c>
       <c r="D13" t="n">
-        <v>0.000346012173054</v>
+        <v>29663</v>
       </c>
       <c r="E13" t="n">
         <v>273.104003906</v>

--- a/Data/IndividualCounties/4019.xlsx
+++ b/Data/IndividualCounties/4019.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">month</t>
   </si>
@@ -33,6 +33,33 @@
   </si>
   <si>
     <t xml:space="preserve">precip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grade_total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grade_distance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grade_visitation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grade_encounters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEVER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RARELY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOMETIMES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FREQUENTLY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALWAYS</t>
   </si>
 </sst>
 </file>
@@ -386,13 +413,40 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2020</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2020</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -409,13 +463,40 @@
       <c r="G2" t="n">
         <v>0.00195766742661</v>
       </c>
+      <c r="H2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.023</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.024</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.073</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.121</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.759</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2020</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>2020</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -432,13 +513,40 @@
       <c r="G3" t="n">
         <v>0.00117530858711</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.023</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.024</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.073</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.121</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.759</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2020</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2020</v>
       </c>
       <c r="C4" t="n">
         <v>6.51612903225806</v>
@@ -455,13 +563,40 @@
       <c r="G4" t="n">
         <v>0.00332340985045</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.023</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.024</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.073</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.121</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.759</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2020</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>2020</v>
       </c>
       <c r="C5" t="n">
         <v>34.6333333333333</v>
@@ -478,13 +613,40 @@
       <c r="G5" t="n">
         <v>0.00117324436695</v>
       </c>
+      <c r="H5" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.023</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.024</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.073</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.121</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.759</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2020</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>2020</v>
       </c>
       <c r="C6" t="n">
         <v>36.3548387096774</v>
@@ -501,13 +663,40 @@
       <c r="G6" t="n">
         <v>0.000492973021039</v>
       </c>
+      <c r="H6" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.023</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.024</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.073</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.121</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.759</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2020</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>2020</v>
       </c>
       <c r="C7" t="n">
         <v>187.866666666667</v>
@@ -524,13 +713,40 @@
       <c r="G7" t="n">
         <v>0.000064993252238</v>
       </c>
+      <c r="H7" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.023</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.024</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.073</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.121</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.759</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2020</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>2020</v>
       </c>
       <c r="C8" t="n">
         <v>263.322580645161</v>
@@ -547,13 +763,40 @@
       <c r="G8" t="n">
         <v>0.000171396424605</v>
       </c>
+      <c r="H8" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.023</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.024</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.073</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.121</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.759</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2020</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>2020</v>
       </c>
       <c r="C9" t="n">
         <v>163.032258064516</v>
@@ -570,13 +813,40 @@
       <c r="G9" t="n">
         <v>0.00071668523924</v>
       </c>
+      <c r="H9" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.023</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.024</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.073</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.121</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.759</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2020</v>
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>2020</v>
       </c>
       <c r="C10" t="n">
         <v>146.9</v>
@@ -593,13 +863,40 @@
       <c r="G10" t="n">
         <v>0.000000525067151</v>
       </c>
+      <c r="H10" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.023</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.024</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.073</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.121</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.759</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2020</v>
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>2020</v>
       </c>
       <c r="C11" t="n">
         <v>95.8064516129032</v>
@@ -616,13 +913,40 @@
       <c r="G11" t="n">
         <v>0.000000397674739</v>
       </c>
+      <c r="H11" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.023</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.024</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.073</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.121</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.759</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2020</v>
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>11</v>
+        <v>2020</v>
       </c>
       <c r="C12" t="n">
         <v>375.366666666667</v>
@@ -639,13 +963,40 @@
       <c r="G12" t="n">
         <v>0.00105689202735</v>
       </c>
+      <c r="H12" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.023</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.024</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.073</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.121</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.759</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2020</v>
+        <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>12</v>
+        <v>2020</v>
       </c>
       <c r="C13" t="n">
         <v>956.870967741935</v>
@@ -661,6 +1012,33 @@
       </c>
       <c r="G13" t="n">
         <v>0.000346012173054</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.023</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.024</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.073</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.121</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.759</v>
       </c>
     </row>
   </sheetData>

--- a/Data/IndividualCounties/4019.xlsx
+++ b/Data/IndividualCounties/4019.xlsx
@@ -1,74 +1,193 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusli\Documents\GitHub\COVID-TimeSeries-GIS\Data\IndividualCounties\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290B895B-2BA0-4DE2-A300-7B090711CB39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Regression" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t xml:space="preserve">month</t>
-  </si>
-  <si>
-    <t xml:space="preserve">year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meanNewCases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">totalNewCases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">temp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">precip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grade_total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grade_distance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grade_visitation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grade_encounters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEVER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RARELY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOMETIMES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FREQUENTLY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALWAYS</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>meanNewCases</t>
+  </si>
+  <si>
+    <t>totalNewCases</t>
+  </si>
+  <si>
+    <t>temp</t>
+  </si>
+  <si>
+    <t>soil</t>
+  </si>
+  <si>
+    <t>precip</t>
+  </si>
+  <si>
+    <t>grade_total</t>
+  </si>
+  <si>
+    <t>grade_distance</t>
+  </si>
+  <si>
+    <t>grade_visitation</t>
+  </si>
+  <si>
+    <t>grade_encounters</t>
+  </si>
+  <si>
+    <t>NEVER</t>
+  </si>
+  <si>
+    <t>RARELY</t>
+  </si>
+  <si>
+    <t>SOMETIMES</t>
+  </si>
+  <si>
+    <t>FREQUENTLY</t>
+  </si>
+  <si>
+    <t>ALWAYS</t>
+  </si>
+  <si>
+    <t>SUMMARY OUTPUT</t>
+  </si>
+  <si>
+    <t>Regression Statistics</t>
+  </si>
+  <si>
+    <t>Multiple R</t>
+  </si>
+  <si>
+    <t>R Square</t>
+  </si>
+  <si>
+    <t>Adjusted R Square</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Significance F</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Lower 95%</t>
+  </si>
+  <si>
+    <t>Upper 95%</t>
+  </si>
+  <si>
+    <t>Lower 95.0%</t>
+  </si>
+  <si>
+    <t>Upper 95.0%</t>
+  </si>
+  <si>
+    <t>X Variable 1</t>
+  </si>
+  <si>
+    <t>X Variable 2</t>
+  </si>
+  <si>
+    <t>X Variable 3</t>
+  </si>
+  <si>
+    <t>RESIDUAL OUTPUT</t>
+  </si>
+  <si>
+    <t>Observation</t>
+  </si>
+  <si>
+    <t>Predicted Y</t>
+  </si>
+  <si>
+    <t>Residuals</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -84,7 +203,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -92,17 +211,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -384,14 +540,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -441,608 +597,1052 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>2020</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" t="n">
-        <v>266.551116943</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.215698242188</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.00195766742661</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="E2">
+        <v>266.55111694300001</v>
+      </c>
+      <c r="F2">
+        <v>0.21569824218799999</v>
+      </c>
+      <c r="G2">
+        <v>1.9576674266100001E-3</v>
+      </c>
+      <c r="H2">
         <v>0.7</v>
       </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.023</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1.0229999999999999</v>
+      </c>
+      <c r="M2">
         <v>1.024</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>1.073</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>1.121</v>
       </c>
-      <c r="P2" t="n">
-        <v>1.759</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="P2">
+        <v>1.7589999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>2020</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" t="n">
-        <v>272.083618163999</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.338317871094</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.00117530858711</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="E3">
+        <v>272.08361816399901</v>
+      </c>
+      <c r="F3">
+        <v>0.33831787109400002</v>
+      </c>
+      <c r="G3">
+        <v>1.1753085871100001E-3</v>
+      </c>
+      <c r="H3">
         <v>0.7</v>
       </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
         <v>0</v>
       </c>
-      <c r="K3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.023</v>
-      </c>
-      <c r="M3" t="n">
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1.0229999999999999</v>
+      </c>
+      <c r="M3">
         <v>1.024</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3">
         <v>1.073</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3">
         <v>1.121</v>
       </c>
-      <c r="P3" t="n">
-        <v>1.759</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="P3">
+        <v>1.7589999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>2020</v>
       </c>
-      <c r="C4" t="n">
-        <v>6.51612903225806</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="C4">
+        <v>6.5161290322580596</v>
+      </c>
+      <c r="D4">
         <v>202</v>
       </c>
-      <c r="E4" t="n">
-        <v>276.732635497999</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.394149780273</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.00332340985045</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="E4">
+        <v>276.73263549799901</v>
+      </c>
+      <c r="F4">
+        <v>0.39414978027300002</v>
+      </c>
+      <c r="G4">
+        <v>3.3234098504500002E-3</v>
+      </c>
+      <c r="H4">
         <v>0.7</v>
       </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
         <v>0</v>
       </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.023</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1.0229999999999999</v>
+      </c>
+      <c r="M4">
         <v>1.024</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4">
         <v>1.073</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4">
         <v>1.121</v>
       </c>
-      <c r="P4" t="n">
-        <v>1.759</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="P4">
+        <v>1.7589999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>2020</v>
       </c>
-      <c r="C5" t="n">
-        <v>34.6333333333333</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="C5">
+        <v>34.633333333333297</v>
+      </c>
+      <c r="D5">
         <v>1039</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>283.822433472</v>
       </c>
-      <c r="F5" t="n">
-        <v>0.294692993164</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.00117324436695</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="F5">
+        <v>0.29469299316399999</v>
+      </c>
+      <c r="G5">
+        <v>1.1732443669500001E-3</v>
+      </c>
+      <c r="H5">
         <v>0.7</v>
       </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
         <v>0</v>
       </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.023</v>
-      </c>
-      <c r="M5" t="n">
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1.0229999999999999</v>
+      </c>
+      <c r="M5">
         <v>1.024</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5">
         <v>1.073</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5">
         <v>1.121</v>
       </c>
-      <c r="P5" t="n">
-        <v>1.759</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="P5">
+        <v>1.7589999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>2020</v>
       </c>
-      <c r="C6" t="n">
-        <v>36.3548387096774</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="C6">
+        <v>36.354838709677402</v>
+      </c>
+      <c r="D6">
         <v>1127</v>
       </c>
-      <c r="E6" t="n">
-        <v>291.205459594999</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.0818023681641</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.000492973021039</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="E6">
+        <v>291.20545959499901</v>
+      </c>
+      <c r="F6">
+        <v>8.1802368164099998E-2</v>
+      </c>
+      <c r="G6">
+        <v>4.9297302103900003E-4</v>
+      </c>
+      <c r="H6">
         <v>0.7</v>
       </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.023</v>
-      </c>
-      <c r="M6" t="n">
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1.0229999999999999</v>
+      </c>
+      <c r="M6">
         <v>1.024</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6">
         <v>1.073</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6">
         <v>1.121</v>
       </c>
-      <c r="P6" t="n">
-        <v>1.759</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="P6">
+        <v>1.7589999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>2020</v>
       </c>
-      <c r="C7" t="n">
-        <v>187.866666666667</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="C7">
+        <v>187.86666666666699</v>
+      </c>
+      <c r="D7">
         <v>5636</v>
       </c>
-      <c r="E7" t="n">
-        <v>298.316925049</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.0265655517578</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.000064993252238</v>
-      </c>
-      <c r="H7" t="n">
+      <c r="E7">
+        <v>298.31692504900002</v>
+      </c>
+      <c r="F7">
+        <v>2.65655517578E-2</v>
+      </c>
+      <c r="G7">
+        <v>6.4993252237999997E-5</v>
+      </c>
+      <c r="H7">
         <v>0.7</v>
       </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
         <v>0</v>
       </c>
-      <c r="K7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.023</v>
-      </c>
-      <c r="M7" t="n">
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1.0229999999999999</v>
+      </c>
+      <c r="M7">
         <v>1.024</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7">
         <v>1.073</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7">
         <v>1.121</v>
       </c>
-      <c r="P7" t="n">
-        <v>1.759</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="P7">
+        <v>1.7589999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>2020</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>263.322580645161</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>8163</v>
       </c>
-      <c r="E8" t="n">
-        <v>298.688827515</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.0281677246094</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.000171396424605</v>
-      </c>
-      <c r="H8" t="n">
+      <c r="E8">
+        <v>298.68882751500001</v>
+      </c>
+      <c r="F8">
+        <v>2.8167724609400001E-2</v>
+      </c>
+      <c r="G8">
+        <v>1.7139642460499999E-4</v>
+      </c>
+      <c r="H8">
         <v>0.7</v>
       </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
         <v>0</v>
       </c>
-      <c r="K8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.023</v>
-      </c>
-      <c r="M8" t="n">
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1.0229999999999999</v>
+      </c>
+      <c r="M8">
         <v>1.024</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8">
         <v>1.073</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8">
         <v>1.121</v>
       </c>
-      <c r="P8" t="n">
-        <v>1.759</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="P8">
+        <v>1.7589999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>2020</v>
       </c>
-      <c r="C9" t="n">
-        <v>163.032258064516</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="C9">
+        <v>163.03225806451599</v>
+      </c>
+      <c r="D9">
         <v>5054</v>
       </c>
-      <c r="E9" t="n">
-        <v>298.18522644</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.045166015625</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.00071668523924</v>
-      </c>
-      <c r="H9" t="n">
+      <c r="E9">
+        <v>298.18522644000001</v>
+      </c>
+      <c r="F9">
+        <v>4.5166015625E-2</v>
+      </c>
+      <c r="G9">
+        <v>7.1668523923999999E-4</v>
+      </c>
+      <c r="H9">
         <v>0.7</v>
       </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
         <v>0</v>
       </c>
-      <c r="K9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.023</v>
-      </c>
-      <c r="M9" t="n">
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1.0229999999999999</v>
+      </c>
+      <c r="M9">
         <v>1.024</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N9">
         <v>1.073</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O9">
         <v>1.121</v>
       </c>
-      <c r="P9" t="n">
-        <v>1.759</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="P9">
+        <v>1.7589999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>2020</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>146.9</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>4407</v>
       </c>
-      <c r="E10" t="n">
-        <v>293.498794556</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.0242462158203</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.000000525067151</v>
-      </c>
-      <c r="H10" t="n">
+      <c r="E10">
+        <v>293.49879455600001</v>
+      </c>
+      <c r="F10">
+        <v>2.42462158203E-2</v>
+      </c>
+      <c r="G10">
+        <v>5.2506715100000002E-7</v>
+      </c>
+      <c r="H10">
         <v>0.7</v>
       </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
         <v>0</v>
       </c>
-      <c r="K10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.023</v>
-      </c>
-      <c r="M10" t="n">
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1.0229999999999999</v>
+      </c>
+      <c r="M10">
         <v>1.024</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N10">
         <v>1.073</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O10">
         <v>1.121</v>
       </c>
-      <c r="P10" t="n">
-        <v>1.759</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="P10">
+        <v>1.7589999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>2020</v>
       </c>
-      <c r="C11" t="n">
-        <v>95.8064516129032</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="C11">
+        <v>95.806451612903203</v>
+      </c>
+      <c r="D11">
         <v>2970</v>
       </c>
-      <c r="E11" t="n">
-        <v>286.173187256</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.0249786376953</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.000000397674739</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="E11">
+        <v>286.17318725600001</v>
+      </c>
+      <c r="F11">
+        <v>2.49786376953E-2</v>
+      </c>
+      <c r="G11">
+        <v>3.9767473900000003E-7</v>
+      </c>
+      <c r="H11">
         <v>0.7</v>
       </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
         <v>0</v>
       </c>
-      <c r="K11" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.023</v>
-      </c>
-      <c r="M11" t="n">
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1.0229999999999999</v>
+      </c>
+      <c r="M11">
         <v>1.024</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N11">
         <v>1.073</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11">
         <v>1.121</v>
       </c>
-      <c r="P11" t="n">
-        <v>1.759</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="P11">
+        <v>1.7589999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>2020</v>
       </c>
-      <c r="C12" t="n">
-        <v>375.366666666667</v>
-      </c>
-      <c r="D12" t="n">
+      <c r="C12">
+        <v>375.36666666666702</v>
+      </c>
+      <c r="D12">
         <v>11261</v>
       </c>
-      <c r="E12" t="n">
-        <v>278.69859314</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.142776489258</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.00105689202735</v>
-      </c>
-      <c r="H12" t="n">
+      <c r="E12">
+        <v>278.69859314000001</v>
+      </c>
+      <c r="F12">
+        <v>0.14277648925799999</v>
+      </c>
+      <c r="G12">
+        <v>1.0568920273499999E-3</v>
+      </c>
+      <c r="H12">
         <v>0.7</v>
       </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
         <v>0</v>
       </c>
-      <c r="K12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.023</v>
-      </c>
-      <c r="M12" t="n">
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1.0229999999999999</v>
+      </c>
+      <c r="M12">
         <v>1.024</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N12">
         <v>1.073</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O12">
         <v>1.121</v>
       </c>
-      <c r="P12" t="n">
-        <v>1.759</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="P12">
+        <v>1.7589999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>2020</v>
       </c>
-      <c r="C13" t="n">
-        <v>956.870967741935</v>
-      </c>
-      <c r="D13" t="n">
+      <c r="C13">
+        <v>956.87096774193503</v>
+      </c>
+      <c r="D13">
         <v>29663</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>273.104003906</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>0.193359375</v>
       </c>
-      <c r="G13" t="n">
-        <v>0.000346012173054</v>
-      </c>
-      <c r="H13" t="n">
+      <c r="G13">
+        <v>3.4601217305399998E-4</v>
+      </c>
+      <c r="H13">
         <v>0.7</v>
       </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
         <v>0</v>
       </c>
-      <c r="K13" t="n">
-        <v>1</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.023</v>
-      </c>
-      <c r="M13" t="n">
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1.0229999999999999</v>
+      </c>
+      <c r="M13">
         <v>1.024</v>
       </c>
-      <c r="N13" t="n">
+      <c r="N13">
         <v>1.073</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O13">
         <v>1.121</v>
       </c>
-      <c r="P13" t="n">
-        <v>1.759</v>
+      <c r="P13">
+        <v>1.7589999999999999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D679EDBB-1260-4A48-9CD4-5332E2F6F8FB}">
+  <dimension ref="A1:I38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V14" sqref="V14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.51759719758797151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.26790685895092164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-6.6280689424827455E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1">
+        <v>8331.3775842149553</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1">
+        <v>203208147.39392459</v>
+      </c>
+      <c r="D12" s="1">
+        <v>67736049.131308198</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.97585710134101322</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.45068383655721833</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1">
+        <v>555294819.60607541</v>
+      </c>
+      <c r="D13" s="1">
+        <v>69411852.450759426</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2">
+        <v>11</v>
+      </c>
+      <c r="C14" s="2">
+        <v>758502967</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="1">
+        <v>109429.49072819599</v>
+      </c>
+      <c r="C17" s="1">
+        <v>99741.709914951774</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.0971286818874957</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.30450777763670922</v>
+      </c>
+      <c r="F17" s="1">
+        <v>-120575.30478801727</v>
+      </c>
+      <c r="G17" s="1">
+        <v>339434.28624440928</v>
+      </c>
+      <c r="H17" s="1">
+        <v>-120575.30478801727</v>
+      </c>
+      <c r="I17" s="1">
+        <v>339434.28624440928</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="1">
+        <v>-347.8376780173885</v>
+      </c>
+      <c r="C18" s="1">
+        <v>338.6381351121621</v>
+      </c>
+      <c r="D18" s="1">
+        <v>-1.0271662933124155</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.33439461718401181</v>
+      </c>
+      <c r="F18" s="1">
+        <v>-1128.7386179238617</v>
+      </c>
+      <c r="G18" s="1">
+        <v>433.06326188908474</v>
+      </c>
+      <c r="H18" s="1">
+        <v>-1128.7386179238617</v>
+      </c>
+      <c r="I18" s="1">
+        <v>433.06326188908474</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1225.6128032531722</v>
+      </c>
+      <c r="C19" s="1">
+        <v>40224.739524918441</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3.0469129638339334E-2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.97643933590784338</v>
+      </c>
+      <c r="F19" s="1">
+        <v>-91532.80287871926</v>
+      </c>
+      <c r="G19" s="1">
+        <v>93984.028485225601</v>
+      </c>
+      <c r="H19" s="1">
+        <v>-91532.80287871926</v>
+      </c>
+      <c r="I19" s="1">
+        <v>93984.028485225601</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="2">
+        <v>-5464728.439230781</v>
+      </c>
+      <c r="C20" s="2">
+        <v>4537550.0098311063</v>
+      </c>
+      <c r="D20" s="2">
+        <v>-1.2043345918812662</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.26287927175163278</v>
+      </c>
+      <c r="F20" s="2">
+        <v>-15928337.525597021</v>
+      </c>
+      <c r="G20" s="2">
+        <v>4998880.6471354589</v>
+      </c>
+      <c r="H20" s="2">
+        <v>-15928337.525597021</v>
+      </c>
+      <c r="I20" s="2">
+        <v>4998880.6471354589</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1">
+        <v>6279.2108043148946</v>
+      </c>
+      <c r="C27" s="1">
+        <v>-6279.2108043148946</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>2</v>
+      </c>
+      <c r="B28" s="1">
+        <v>8780.4612129908273</v>
+      </c>
+      <c r="C28" s="1">
+        <v>-8780.4612129908273</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>3</v>
+      </c>
+      <c r="B29" s="1">
+        <v>-4507.0039429321423</v>
+      </c>
+      <c r="C29" s="1">
+        <v>4709.0039429321423</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1">
+        <v>4655.0721472626064</v>
+      </c>
+      <c r="C30" s="1">
+        <v>-3616.0721472626064</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1">
+        <v>5543.5541785980995</v>
+      </c>
+      <c r="C31" s="1">
+        <v>-4416.5541785980995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>6</v>
+      </c>
+      <c r="B32" s="1">
+        <v>5341.0128123612467</v>
+      </c>
+      <c r="C32" s="1">
+        <v>294.98718763875331</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>7</v>
+      </c>
+      <c r="B33" s="1">
+        <v>4632.1503236404997</v>
+      </c>
+      <c r="C33" s="1">
+        <v>3530.8496763595003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>8</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1848.2997823873798</v>
+      </c>
+      <c r="C34" s="1">
+        <v>3205.7002176126202</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>9</v>
+      </c>
+      <c r="B35" s="1">
+        <v>7366.3986520816279</v>
+      </c>
+      <c r="C35" s="1">
+        <v>-2959.3986520816279</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>10</v>
+      </c>
+      <c r="B36" s="1">
+        <v>9916.1147159450429</v>
+      </c>
+      <c r="C36" s="1">
+        <v>-6946.1147159450429</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>11</v>
+      </c>
+      <c r="B37" s="1">
+        <v>6886.9799978478268</v>
+      </c>
+      <c r="C37" s="1">
+        <v>4374.0200021521732</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>12</v>
+      </c>
+      <c r="B38" s="2">
+        <v>12779.749315501944</v>
+      </c>
+      <c r="C38" s="2">
+        <v>16883.250684498056</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/IndividualCounties/4019.xlsx
+++ b/Data/IndividualCounties/4019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusli\Documents\GitHub\COVID-TimeSeries-GIS\Data\IndividualCounties\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guslipkin/Documents/COVID-TimeSeries-GIS/Data/IndividualCounties/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290B895B-2BA0-4DE2-A300-7B090711CB39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A27083-383B-1444-98F3-EB22F73A76EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51200" yWindow="-6420" windowWidth="21600" windowHeight="37900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -543,11 +543,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -597,7 +599,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -647,7 +649,7 @@
         <v>1.7589999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -697,7 +699,7 @@
         <v>1.7589999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -747,7 +749,7 @@
         <v>1.7589999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -797,7 +799,7 @@
         <v>1.7589999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -847,7 +849,7 @@
         <v>1.7589999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -897,7 +899,7 @@
         <v>1.7589999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -947,7 +949,7 @@
         <v>1.7589999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -997,7 +999,7 @@
         <v>1.7589999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1047,7 +1049,7 @@
         <v>1.7589999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1097,7 +1099,7 @@
         <v>1.7589999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1147,7 +1149,7 @@
         <v>1.7589999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1207,36 +1209,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D679EDBB-1260-4A48-9CD4-5332E2F6F8FB}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -1244,7 +1246,7 @@
         <v>0.51759719758797151</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -1252,7 +1254,7 @@
         <v>0.26790685895092164</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1260,7 +1262,7 @@
         <v>-6.6280689424827455E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -1268,7 +1270,7 @@
         <v>8331.3775842149553</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -1276,12 +1278,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>28</v>
@@ -1299,7 +1301,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1319,7 +1321,7 @@
         <v>0.45068383655721833</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -1335,7 +1337,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -1349,8 +1351,8 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>33</v>
@@ -1377,7 +1379,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -1406,7 +1408,7 @@
         <v>339434.28624440928</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
@@ -1435,7 +1437,7 @@
         <v>433.06326188908474</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>41</v>
       </c>
@@ -1464,7 +1466,7 @@
         <v>93984.028485225601</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>42</v>
       </c>
@@ -1493,13 +1495,13 @@
         <v>4998880.6471354589</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>44</v>
       </c>
@@ -1510,7 +1512,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -1521,7 +1523,7 @@
         <v>-6279.2108043148946</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>2</v>
       </c>
@@ -1532,7 +1534,7 @@
         <v>-8780.4612129908273</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>3</v>
       </c>
@@ -1543,7 +1545,7 @@
         <v>4709.0039429321423</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>4</v>
       </c>
@@ -1554,7 +1556,7 @@
         <v>-3616.0721472626064</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>5</v>
       </c>
@@ -1565,7 +1567,7 @@
         <v>-4416.5541785980995</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>6</v>
       </c>
@@ -1576,7 +1578,7 @@
         <v>294.98718763875331</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>7</v>
       </c>
@@ -1587,7 +1589,7 @@
         <v>3530.8496763595003</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>8</v>
       </c>
@@ -1598,7 +1600,7 @@
         <v>3205.7002176126202</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>9</v>
       </c>
@@ -1609,7 +1611,7 @@
         <v>-2959.3986520816279</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>10</v>
       </c>
@@ -1620,7 +1622,7 @@
         <v>-6946.1147159450429</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>11</v>
       </c>
@@ -1631,7 +1633,7 @@
         <v>4374.0200021521732</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>12</v>
       </c>
